--- a/biology/Médecine/Classe_ATC_C07/Classe_ATC_C07.xlsx
+++ b/biology/Médecine/Classe_ATC_C07/Classe_ATC_C07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC C07, dénommée « Agents β-bloquants », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QC07[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique C de la classification, intitulé « Système cardio-vasculaire ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC C07, dénommée « Agents β-bloquants », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QC07. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique C de la classification, intitulé « Système cardio-vasculaire ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C07AA Bêtabloquants non sélectifs
-C07AA01 Alprénolol
+          <t>C07AA Bêtabloquants non sélectifs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>C07AA01 Alprénolol
 C07AA02 Oxprénolol
 C07AA03 Pindolol
 C07AA05 Propranolol
@@ -528,9 +545,43 @@
 C07AA19 Bupranolol (en)
 C07AA23 Penbutolol (en)
 C07AA27 Cloranolol (en)
-QC07AA90 Carazolol (en)
-C07AB Bêtabloquants sélectifs
-C07AB01 Practolol (en)
+QC07AA90 Carazolol (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C07A Bêtabloquants</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>C07AB Bêtabloquants sélectifs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C07AB01 Practolol (en)
 C07AB02 Métoprolol
 C07AB03 Aténolol
 C07AB04 Acébutolol
@@ -543,162 +594,127 @@
 C07AB11 S-aténolol
 C07AB12 Nébivolol
 C07AB13 Talinolol (en)
-C07AB14 Landiolol
-C07AG Alpha et bêtabloquants
-C07AG01 Labétalol
+C07AB14 Landiolol</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C07A Bêtabloquants</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C07AG Alpha et bêtabloquants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C07AG01 Labétalol
 C07AG02 Carvédilol</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C07</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>C07B Bêtabloquants et thiazidiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>C07BA Bêtabloquants non sélectifs et thiazidiques
-C07BA02 Oxprénolol et thiazidiques
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C07BA Bêtabloquants non sélectifs et thiazidiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>C07BA02 Oxprénolol et thiazidiques
 C07BA05 Propranolol et thiazidiques
 C07BA06 Timolol et thiazidiques
 C07BA07 Sotalol et thiazidiques
 C07BA12 Nadolol et thiazidiques
-C07BA68 Métipranolol et thiazidiques en association
-C07BB Bêtabloquants sélectifs et thiazidiques
-C07BB02 Métoprolol et thiazidiques
+C07BA68 Métipranolol et thiazidiques en association</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C07B Bêtabloquants et thiazidiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C07BB Bêtabloquants sélectifs et thiazidiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>C07BB02 Métoprolol et thiazidiques
 C07BB03 Aténolol et thiazidiques
 C07BB04 Acébutolol et thiazidiques
 C07BB06 Bévantolol et thiazidiques
 C07BB07 Bisoprolol et thiazidiques
 C07BB12 Nébivolol et thiazidiques
-C07BB52 Métoprolol et thiazidiques en association
-C07BG Alpha et bêtabloquants et thiazidiques
-C07BG01 Labétalol et thiazidiques</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C07</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>C07C Bêtabloquants et autres diurétiques</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>C07CA Bêtabloquants non sélectifs et autres diurétiques
-C07CA02 Oxprénolol et autres diurétiques
-C07CA03 Pindolol et autres diurétiques
-C07CA17 Bopindolol et autres diurétiques
-C07CA23 Penbutolol et autres diurétiques
-C07CB Bêtabloquants sélectifs et autres diurétiques
-C07CB02 Métoprolol et autres diurétiques
-C07CB03 Aténolol et autres diurétiques
-C07CB53 Aténolol et autres diurétiques en association
-C07CG Alpha et bêtabloquants et autres diurétiques
-C07CG01 Labétalol et autres diurétiques</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C07</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>C07D Bêtabloquants, thiazidiques et autres diurétiques</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>C07DA Bêtabloquants non sélectifs, thiazidiques et autres diurétiques
-C07DA06 Timolol, thiazidiques et autres diurétiques
-C07DB Bêtabloquants sélectifs, thiazidiques et autres diurétiques
-C07DB01 Aténolol, thiazidiques et autres diurétiques</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C07</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C07</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>C07E Bêtabloquants et vasodilatateurs</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>C07EA Bêtabloquants non sélectifs et vasodilatateurs
-Classe vide.
-C07EB Bêtabloquants sélectifs et vasodilatateurs
-Classe vide.</t>
+C07BB52 Métoprolol et thiazidiques en association</t>
         </is>
       </c>
     </row>
@@ -723,19 +739,351 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>C07B Bêtabloquants et thiazidiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C07BG Alpha et bêtabloquants et thiazidiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>C07BG01 Labétalol et thiazidiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C07C Bêtabloquants et autres diurétiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>C07CA Bêtabloquants non sélectifs et autres diurétiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>C07CA02 Oxprénolol et autres diurétiques
+C07CA03 Pindolol et autres diurétiques
+C07CA17 Bopindolol et autres diurétiques
+C07CA23 Penbutolol et autres diurétiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C07C Bêtabloquants et autres diurétiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>C07CB Bêtabloquants sélectifs et autres diurétiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>C07CB02 Métoprolol et autres diurétiques
+C07CB03 Aténolol et autres diurétiques
+C07CB53 Aténolol et autres diurétiques en association</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C07C Bêtabloquants et autres diurétiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>C07CG Alpha et bêtabloquants et autres diurétiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>C07CG01 Labétalol et autres diurétiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C07D Bêtabloquants, thiazidiques et autres diurétiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>C07DA Bêtabloquants non sélectifs, thiazidiques et autres diurétiques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>C07DA06 Timolol, thiazidiques et autres diurétiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>C07D Bêtabloquants, thiazidiques et autres diurétiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>C07DB Bêtabloquants sélectifs, thiazidiques et autres diurétiques</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>C07DB01 Aténolol, thiazidiques et autres diurétiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>C07E Bêtabloquants et vasodilatateurs</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>C07EA Bêtabloquants non sélectifs et vasodilatateurs</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>C07E Bêtabloquants et vasodilatateurs</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>C07EB Bêtabloquants sélectifs et vasodilatateurs</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>C07F Bêtabloquants, autres associations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>C07FB Bêtabloquants et inhibiteurs du canal de calcium
-C07FB02 Métoprolol et autres antihypertenseurs
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>C07FB Bêtabloquants et inhibiteurs du canal de calcium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>C07FB02 Métoprolol et autres antihypertenseurs
 C07FB03 Aténolol et autres antihypertenseurs
 C07FB07 Bisoprolol et autres antihypertenseurs
 C07FB12 Nébivolol et autres antihypertenseurs
-C07FB13 Métoprolol et amlodipine
-C07FX Bêtabloquants, autres associations
-C07FX01 Propranolol et autres associations
+C07FB13 Métoprolol et amlodipine</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>C07F Bêtabloquants, autres associations</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>C07FX Bêtabloquants, autres associations</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>C07FX01 Propranolol et autres associations
 C07FX02 Sotalol et acide acétylsalicylique
 C07FX03 Métoprolol et acide acétylsalicylique
 C07FX04 Bisoprolol et acide acétylsalicylique
